--- a/config.xlsx
+++ b/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\text-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C304B841-7821-4AA2-944D-16CEB94E7E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B4F99-475F-4732-AF18-FD78F1C4C3EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>C:\Excels\</t>
+    <t>C:\excel-files\</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools-maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B4F99-475F-4732-AF18-FD78F1C4C3EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5C62BB-ECFF-4ABC-8642-53F3023276B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools-maven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5C62BB-ECFF-4ABC-8642-53F3023276B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5E750-0E4B-4ABF-A7BA-4F265908101B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Path</t>
   </si>
@@ -34,15 +34,9 @@
     <t>Search For</t>
   </si>
   <si>
-    <t>File 1</t>
-  </si>
-  <si>
     <t>C:\excel-files\diff_1.xlsx</t>
   </si>
   <si>
-    <t>File 2</t>
-  </si>
-  <si>
     <t>C:\excel-files\diff_2.xlsx</t>
   </si>
   <si>
@@ -62,6 +56,12 @@
   </si>
   <si>
     <t>C:\excel-files\</t>
+  </si>
+  <si>
+    <t>Path 1</t>
+  </si>
+  <si>
+    <t>Path 2</t>
   </si>
 </sst>
 </file>
@@ -82,18 +82,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -137,13 +131,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,94 +454,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="12.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="4" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="4"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125" style="2"/>
     <col min="1026" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="6"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="6"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="6"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="6"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="6"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -561,31 +553,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47A4E94-6B10-410D-BD40-506A23BBB851}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
